--- a/output/jovenes y desarrollo.xlsx
+++ b/output/jovenes y desarrollo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="180">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -885,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ141"/>
+  <dimension ref="A1:AM141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,7 +903,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1003,10 +1012,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1105,15 +1123,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>115583</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1212,15 +1239,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>297366</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1319,15 +1355,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>313859</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1426,15 +1471,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>310685</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1533,15 +1587,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>106183</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1640,15 +1703,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>404937</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1747,15 +1819,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>380935</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1854,15 +1935,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>42060</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1961,15 +2051,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>283979</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2068,15 +2167,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>38532</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2175,15 +2283,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>127164</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2282,15 +2399,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>755319</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2389,15 +2515,24 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>6873</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2496,15 +2631,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>271245</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2603,15 +2747,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>1064385</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2710,15 +2863,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>205400</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2817,15 +2979,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>164513</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2924,15 +3095,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>53862</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3031,15 +3211,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>174837</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3138,15 +3327,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>18000</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3245,15 +3443,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>818640</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3352,15 +3559,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>335119</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3459,15 +3675,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>1763837</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3566,15 +3791,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>832250</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3673,15 +3907,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>832250</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3780,15 +4023,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>214028</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3887,15 +4139,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>38059</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3994,15 +4255,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>56000</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4101,15 +4371,24 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>284126</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4208,15 +4487,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>224906</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4315,15 +4603,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>6000</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4422,15 +4719,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>71035</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4529,15 +4835,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>144622</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4636,15 +4951,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>5230</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4743,15 +5067,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>6000</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4850,15 +5183,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4957,15 +5299,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>342962</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5064,15 +5415,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>18000</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5171,15 +5531,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>1100000</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5278,15 +5647,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>346922</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5385,15 +5763,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>271962</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5492,15 +5879,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>975250</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5599,15 +5995,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>964700</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5706,15 +6111,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>109197</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5813,15 +6227,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>52692</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5920,15 +6343,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>50000</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6027,15 +6459,24 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>356200</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6134,15 +6575,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>379125</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6241,15 +6691,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>376125</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6348,15 +6807,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>30642.68</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6455,15 +6923,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>26171.73</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6562,15 +7039,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>12964.32</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6669,15 +7155,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6776,15 +7271,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>3000</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6883,15 +7387,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>60316.73</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6990,15 +7503,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>54131.47</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7097,15 +7619,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>56049.025</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7204,15 +7735,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>9000</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7311,15 +7851,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7418,15 +7967,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>3150</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7525,15 +8083,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>34614.045</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7632,15 +8199,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>66252.3</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7739,15 +8315,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>375600</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7846,15 +8431,24 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>61204.925</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7953,15 +8547,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>379125</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8060,15 +8663,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>376125</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8167,15 +8779,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>30642.68</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8274,15 +8895,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>26171.73</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8381,15 +9011,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>12964.32</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8488,15 +9127,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>900</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8595,15 +9243,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>3000</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8702,15 +9359,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>60316.73</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8809,15 +9475,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>54131.47</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8916,15 +9591,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>56049.025</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9023,15 +9707,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9130,15 +9823,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9237,15 +9939,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>3150</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -9344,15 +10055,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>34614.045</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -9451,15 +10171,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>66252.3</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -9558,15 +10287,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>375600</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9665,15 +10403,24 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>61204.925</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -9772,15 +10519,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>3808.905</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -9879,15 +10635,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>27431.635</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9986,15 +10751,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>1</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>9617.51</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10093,15 +10867,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>12409.08</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10200,15 +10983,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>1</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>337.32</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10307,15 +11099,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>19105.46</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10414,15 +11215,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>2098.87</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -10521,15 +11331,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>1</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>1864.52</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -10628,15 +11447,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>55670.72</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10735,15 +11563,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>1615.38</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -10842,15 +11679,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>47249.415</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:39">
       <c r="A94" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -10949,15 +11795,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI94">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>1</v>
+      </c>
+      <c r="AM94">
         <v>339469.665</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:39">
       <c r="A95" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11056,15 +11911,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI95">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>1</v>
+      </c>
+      <c r="AM95">
         <v>1349.275</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:39">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11163,15 +12027,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI96">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>1</v>
+      </c>
+      <c r="AM96">
         <v>19158.77</v>
       </c>
     </row>
-    <row r="97" spans="1:36">
+    <row r="97" spans="1:39">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -11270,15 +12143,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI97">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>1</v>
+      </c>
+      <c r="AL97">
+        <v>1</v>
+      </c>
+      <c r="AM97">
         <v>234249.16</v>
       </c>
     </row>
-    <row r="98" spans="1:36">
+    <row r="98" spans="1:39">
       <c r="A98" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -11377,15 +12259,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI98">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>1</v>
+      </c>
+      <c r="AM98">
         <v>89295.78</v>
       </c>
     </row>
-    <row r="99" spans="1:36">
+    <row r="99" spans="1:39">
       <c r="A99" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -11484,21 +12375,30 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI99">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>1</v>
+      </c>
+      <c r="AM99">
         <v>2937.035</v>
       </c>
     </row>
-    <row r="100" spans="1:36">
+    <row r="100" spans="1:39">
       <c r="A100" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -11591,15 +12491,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI100">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>1</v>
+      </c>
+      <c r="AM100">
         <v>7247.105</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
+    <row r="101" spans="1:39">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -11698,15 +12607,24 @@
         <v>0.2593431397721392</v>
       </c>
       <c r="AI101">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>1</v>
+      </c>
+      <c r="AM101">
         <v>1992.055</v>
       </c>
     </row>
-    <row r="102" spans="1:36">
+    <row r="102" spans="1:39">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -11805,15 +12723,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI102">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>1</v>
+      </c>
+      <c r="AM102">
         <v>3808.905</v>
       </c>
     </row>
-    <row r="103" spans="1:36">
+    <row r="103" spans="1:39">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -11912,15 +12839,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI103">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>1</v>
+      </c>
+      <c r="AM103">
         <v>27431.635</v>
       </c>
     </row>
-    <row r="104" spans="1:36">
+    <row r="104" spans="1:39">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12019,15 +12955,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI104">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>1</v>
+      </c>
+      <c r="AL104">
+        <v>1</v>
+      </c>
+      <c r="AM104">
         <v>9617.51</v>
       </c>
     </row>
-    <row r="105" spans="1:36">
+    <row r="105" spans="1:39">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -12126,15 +13071,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI105">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>1</v>
+      </c>
+      <c r="AM105">
         <v>12409.08</v>
       </c>
     </row>
-    <row r="106" spans="1:36">
+    <row r="106" spans="1:39">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -12233,15 +13187,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI106">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>1</v>
+      </c>
+      <c r="AL106">
+        <v>1</v>
+      </c>
+      <c r="AM106">
         <v>337.32</v>
       </c>
     </row>
-    <row r="107" spans="1:36">
+    <row r="107" spans="1:39">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -12340,15 +13303,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI107">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>1</v>
+      </c>
+      <c r="AM107">
         <v>19105.46</v>
       </c>
     </row>
-    <row r="108" spans="1:36">
+    <row r="108" spans="1:39">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -12447,15 +13419,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI108">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>1</v>
+      </c>
+      <c r="AM108">
         <v>2098.87</v>
       </c>
     </row>
-    <row r="109" spans="1:36">
+    <row r="109" spans="1:39">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -12554,15 +13535,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI109">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>1</v>
+      </c>
+      <c r="AL109">
+        <v>1</v>
+      </c>
+      <c r="AM109">
         <v>1864.52</v>
       </c>
     </row>
-    <row r="110" spans="1:36">
+    <row r="110" spans="1:39">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -12661,15 +13651,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI110">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>1</v>
+      </c>
+      <c r="AM110">
         <v>55670.72</v>
       </c>
     </row>
-    <row r="111" spans="1:36">
+    <row r="111" spans="1:39">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -12768,15 +13767,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI111">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>1</v>
+      </c>
+      <c r="AM111">
         <v>1615.38</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
+    <row r="112" spans="1:39">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -12875,15 +13883,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI112">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>1</v>
+      </c>
+      <c r="AL112">
+        <v>1</v>
+      </c>
+      <c r="AM112">
         <v>47249.415</v>
       </c>
     </row>
-    <row r="113" spans="1:36">
+    <row r="113" spans="1:39">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -12982,15 +13999,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI113">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>1</v>
+      </c>
+      <c r="AM113">
         <v>339469.665</v>
       </c>
     </row>
-    <row r="114" spans="1:36">
+    <row r="114" spans="1:39">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -13089,15 +14115,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI114">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>1</v>
+      </c>
+      <c r="AM114">
         <v>1349.275</v>
       </c>
     </row>
-    <row r="115" spans="1:36">
+    <row r="115" spans="1:39">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -13196,15 +14231,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI115">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>1</v>
+      </c>
+      <c r="AM115">
         <v>19158.77</v>
       </c>
     </row>
-    <row r="116" spans="1:36">
+    <row r="116" spans="1:39">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -13303,15 +14347,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI116">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>1</v>
+      </c>
+      <c r="AL116">
+        <v>1</v>
+      </c>
+      <c r="AM116">
         <v>234249.16</v>
       </c>
     </row>
-    <row r="117" spans="1:36">
+    <row r="117" spans="1:39">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -13410,15 +14463,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI117">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>1</v>
+      </c>
+      <c r="AM117">
         <v>89295.78</v>
       </c>
     </row>
-    <row r="118" spans="1:36">
+    <row r="118" spans="1:39">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -13517,21 +14579,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI118">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>1</v>
+      </c>
+      <c r="AM118">
         <v>2937.035</v>
       </c>
     </row>
-    <row r="119" spans="1:36">
+    <row r="119" spans="1:39">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -13624,15 +14695,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI119">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>1</v>
+      </c>
+      <c r="AM119">
         <v>7247.105</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
+    <row r="120" spans="1:39">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -13731,15 +14811,24 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI120">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>1</v>
+      </c>
+      <c r="AM120">
         <v>1992.055</v>
       </c>
     </row>
-    <row r="121" spans="1:36">
+    <row r="121" spans="1:39">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -13838,15 +14927,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI121">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>1</v>
+      </c>
+      <c r="AM121">
         <v>1010</v>
       </c>
     </row>
-    <row r="122" spans="1:36">
+    <row r="122" spans="1:39">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -13945,15 +15043,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI122">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>1</v>
+      </c>
+      <c r="AM122">
         <v>118904</v>
       </c>
     </row>
-    <row r="123" spans="1:36">
+    <row r="123" spans="1:39">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -14052,15 +15159,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI123">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>1</v>
+      </c>
+      <c r="AL123">
+        <v>1</v>
+      </c>
+      <c r="AM123">
         <v>35627</v>
       </c>
     </row>
-    <row r="124" spans="1:36">
+    <row r="124" spans="1:39">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -14159,15 +15275,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI124">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>1</v>
+      </c>
+      <c r="AM124">
         <v>34632</v>
       </c>
     </row>
-    <row r="125" spans="1:36">
+    <row r="125" spans="1:39">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -14266,15 +15391,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI125">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>1</v>
+      </c>
+      <c r="AL125">
+        <v>1</v>
+      </c>
+      <c r="AM125">
         <v>1104</v>
       </c>
     </row>
-    <row r="126" spans="1:36">
+    <row r="126" spans="1:39">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -14373,15 +15507,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI126">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>1</v>
+      </c>
+      <c r="AM126">
         <v>53121</v>
       </c>
     </row>
-    <row r="127" spans="1:36">
+    <row r="127" spans="1:39">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -14480,15 +15623,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI127">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>1</v>
+      </c>
+      <c r="AM127">
         <v>1840</v>
       </c>
     </row>
-    <row r="128" spans="1:36">
+    <row r="128" spans="1:39">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -14587,15 +15739,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI128">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AK128">
+        <v>1</v>
+      </c>
+      <c r="AL128">
+        <v>1</v>
+      </c>
+      <c r="AM128">
         <v>28349</v>
       </c>
     </row>
-    <row r="129" spans="1:36">
+    <row r="129" spans="1:39">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -14694,15 +15855,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI129">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>1</v>
+      </c>
+      <c r="AM129">
         <v>79039</v>
       </c>
     </row>
-    <row r="130" spans="1:36">
+    <row r="130" spans="1:39">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -14801,15 +15971,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI130">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>1</v>
+      </c>
+      <c r="AM130">
         <v>7914</v>
       </c>
     </row>
-    <row r="131" spans="1:36">
+    <row r="131" spans="1:39">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -14908,15 +16087,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI131">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AK131">
+        <v>1</v>
+      </c>
+      <c r="AL131">
+        <v>1</v>
+      </c>
+      <c r="AM131">
         <v>15650</v>
       </c>
     </row>
-    <row r="132" spans="1:36">
+    <row r="132" spans="1:39">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -15015,15 +16203,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI132">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>1</v>
+      </c>
+      <c r="AM132">
         <v>650816</v>
       </c>
     </row>
-    <row r="133" spans="1:36">
+    <row r="133" spans="1:39">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -15122,15 +16319,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI133">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>1</v>
+      </c>
+      <c r="AM133">
         <v>3576</v>
       </c>
     </row>
-    <row r="134" spans="1:36">
+    <row r="134" spans="1:39">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -15229,15 +16435,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI134">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AK134">
+        <v>1</v>
+      </c>
+      <c r="AL134">
+        <v>1</v>
+      </c>
+      <c r="AM134">
         <v>1840</v>
       </c>
     </row>
-    <row r="135" spans="1:36">
+    <row r="135" spans="1:39">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -15336,15 +16551,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI135">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>1</v>
+      </c>
+      <c r="AM135">
         <v>3781</v>
       </c>
     </row>
-    <row r="136" spans="1:36">
+    <row r="136" spans="1:39">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -15443,15 +16667,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI136">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AK136">
+        <v>1</v>
+      </c>
+      <c r="AL136">
+        <v>1</v>
+      </c>
+      <c r="AM136">
         <v>625000</v>
       </c>
     </row>
-    <row r="137" spans="1:36">
+    <row r="137" spans="1:39">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -15550,15 +16783,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI137">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>1</v>
+      </c>
+      <c r="AM137">
         <v>92060</v>
       </c>
     </row>
-    <row r="138" spans="1:36">
+    <row r="138" spans="1:39">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -15657,15 +16899,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI138">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>1</v>
+      </c>
+      <c r="AM138">
         <v>220433</v>
       </c>
     </row>
-    <row r="139" spans="1:36">
+    <row r="139" spans="1:39">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -15764,21 +17015,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI139">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>1</v>
+      </c>
+      <c r="AM139">
         <v>10771</v>
       </c>
     </row>
-    <row r="140" spans="1:36">
+    <row r="140" spans="1:39">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -15871,15 +17131,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI140">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>1</v>
+      </c>
+      <c r="AM140">
         <v>71028</v>
       </c>
     </row>
-    <row r="141" spans="1:36">
+    <row r="141" spans="1:39">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -15978,9 +17247,18 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI141">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>1</v>
+      </c>
+      <c r="AM141">
         <v>3993</v>
       </c>
     </row>

--- a/output/jovenes y desarrollo.xlsx
+++ b/output/jovenes y desarrollo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="182">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
+    <t>Private_Funds_Donations</t>
   </si>
   <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -894,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM141"/>
+  <dimension ref="A1:AO141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,7 +909,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1021,10 +1027,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1123,24 +1135,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI2">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ2">
         <v>1988</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>115583</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1239,24 +1257,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI3">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ3">
         <v>1988</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>297366</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1355,24 +1379,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI4">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ4">
         <v>1988</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>313859</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1471,24 +1501,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI5">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ5">
         <v>1988</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>310685</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1587,24 +1623,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI6">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ6">
         <v>1988</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>106183</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1703,24 +1745,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI7">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ7">
         <v>1988</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>404937</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1819,24 +1867,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI8">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ8">
         <v>1988</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>380935</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1935,24 +1989,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI9">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ9">
         <v>1988</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>42060</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2051,24 +2111,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI10">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ10">
         <v>1988</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>283979</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2167,24 +2233,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI11">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ11">
         <v>1988</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>38532</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2283,24 +2355,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI12">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ12">
         <v>1988</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>127164</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2399,24 +2477,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI13">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ13">
         <v>1988</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>755319</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2515,24 +2599,30 @@
         <v>0.2393128771353765</v>
       </c>
       <c r="AI14">
+        <v>0.43992789949456</v>
+      </c>
+      <c r="AJ14">
         <v>1988</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>6873</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2631,24 +2721,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI15">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ15">
         <v>1988</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>271245</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2747,24 +2843,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI16">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ16">
         <v>1988</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>1064385</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2863,24 +2965,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI17">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ17">
         <v>1988</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>205400</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2979,24 +3087,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI18">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ18">
         <v>1988</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>164513</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3095,24 +3209,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI19">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ19">
         <v>1988</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>53862</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3211,24 +3331,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI20">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ20">
         <v>1988</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>174837</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3327,24 +3453,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI21">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ21">
         <v>1988</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>18000</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3443,24 +3575,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI22">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ22">
         <v>1988</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>818640</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3559,24 +3697,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI23">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ23">
         <v>1988</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>335119</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3675,24 +3819,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI24">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ24">
         <v>1988</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>1763837</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3791,24 +3941,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI25">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ25">
         <v>1988</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>832250</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3907,24 +4063,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI26">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ26">
         <v>1988</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>832250</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4023,24 +4185,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI27">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ27">
         <v>1988</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>214028</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4139,24 +4307,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI28">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ28">
         <v>1988</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>38059</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4255,24 +4429,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI29">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ29">
         <v>1988</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>56000</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4371,24 +4551,30 @@
         <v>0.1810886409136922</v>
       </c>
       <c r="AI30">
+        <v>0.5363209030590508</v>
+      </c>
+      <c r="AJ30">
         <v>1988</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>284126</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4487,24 +4673,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI31">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ31">
         <v>1988</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>224906</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4603,24 +4795,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI32">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ32">
         <v>1988</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>6000</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4719,24 +4917,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI33">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ33">
         <v>1988</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>71035</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4835,24 +5039,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI34">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ34">
         <v>1988</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>144622</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4951,24 +5161,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI35">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ35">
         <v>1988</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>5230</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5067,24 +5283,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI36">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ36">
         <v>1988</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>6000</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5183,24 +5405,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI37">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ37">
         <v>1988</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>3000</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5299,24 +5527,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI38">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ38">
         <v>1988</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>342962</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5415,24 +5649,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI39">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ39">
         <v>1988</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>18000</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5531,24 +5771,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI40">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ40">
         <v>1988</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>1100000</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5647,24 +5893,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI41">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ41">
         <v>1988</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>346922</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5763,24 +6015,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI42">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ42">
         <v>1988</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>271962</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5879,24 +6137,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI43">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ43">
         <v>1988</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>975250</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5995,24 +6259,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI44">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ44">
         <v>1988</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>964700</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6111,24 +6381,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI45">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ45">
         <v>1988</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>109197</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6227,24 +6503,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI46">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ46">
         <v>1988</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
         <v>0</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>1</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>52692</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6343,24 +6625,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI47">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ47">
         <v>1988</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>50000</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6459,24 +6747,30 @@
         <v>0.1574076622068609</v>
       </c>
       <c r="AI48">
+        <v>0.6870335641204863</v>
+      </c>
+      <c r="AJ48">
         <v>1988</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>356200</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6575,24 +6869,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI49">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ49">
         <v>1988</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>379125</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6691,24 +6991,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI50">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ50">
         <v>1988</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>1</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>376125</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6807,24 +7113,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI51">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ51">
         <v>1988</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>1</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>30642.68</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6923,24 +7235,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI52">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ52">
         <v>1988</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>26171.73</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -7039,24 +7357,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI53">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ53">
         <v>1988</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>12964.32</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7155,24 +7479,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI54">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ54">
         <v>1988</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>900</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7271,24 +7601,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI55">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ55">
         <v>1988</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>3000</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7387,24 +7723,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI56">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ56">
         <v>1988</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>1</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>60316.73</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7503,24 +7845,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI57">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ57">
         <v>1988</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
         <v>0</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>54131.47</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7619,24 +7967,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI58">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ58">
         <v>1988</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>1</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>56049.025</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7735,24 +8089,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI59">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ59">
         <v>1988</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>9000</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7851,24 +8211,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI60">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ60">
         <v>1988</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7967,24 +8333,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI61">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ61">
         <v>1988</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
         <v>0</v>
       </c>
       <c r="AL61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>3150</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8083,24 +8455,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI62">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ62">
         <v>1988</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>34614.045</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8199,24 +8577,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI63">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ63">
         <v>1988</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>66252.3</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8315,24 +8699,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI64">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ64">
         <v>1988</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>375600</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8431,24 +8821,30 @@
         <v>0.3299416456160343</v>
       </c>
       <c r="AI65">
+        <v>0.5656348546913738</v>
+      </c>
+      <c r="AJ65">
         <v>1988</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL65">
         <v>1</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>61204.925</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8547,24 +8943,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI66">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ66">
         <v>1988</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>379125</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8663,24 +9065,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI67">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ67">
         <v>1988</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>376125</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8779,24 +9187,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI68">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ68">
         <v>1988</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>30642.68</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8895,24 +9309,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI69">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ69">
         <v>1988</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>26171.73</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -9011,24 +9431,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI70">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ70">
         <v>1988</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>12964.32</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9127,24 +9553,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI71">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ71">
         <v>1988</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71">
         <v>1</v>
       </c>
       <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>900</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -9243,24 +9675,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI72">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ72">
         <v>1988</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
         <v>0</v>
       </c>
       <c r="AL72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>3000</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -9359,24 +9797,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI73">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ73">
         <v>1988</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>60316.73</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9475,24 +9919,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI74">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ74">
         <v>1988</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>54131.47</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -9591,24 +10041,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI75">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ75">
         <v>1988</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>56049.025</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9707,24 +10163,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI76">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ76">
         <v>1988</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>9000</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -9823,24 +10285,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI77">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ77">
         <v>1988</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>600</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9939,24 +10407,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI78">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ78">
         <v>1988</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>3150</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -10055,24 +10529,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI79">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ79">
         <v>1988</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>34614.045</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -10171,24 +10651,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI80">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ80">
         <v>1988</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>66252.3</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -10287,24 +10773,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI81">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ81">
         <v>1988</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>375600</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10403,24 +10895,30 @@
         <v>0.1927713893284243</v>
       </c>
       <c r="AI82">
+        <v>0.6628317607311126</v>
+      </c>
+      <c r="AJ82">
         <v>1988</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>61204.925</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -10477,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="T83">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U83">
         <v>14</v>
@@ -10513,30 +11011,36 @@
         <v>0</v>
       </c>
       <c r="AG83">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH83">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI83">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ83">
         <v>1988</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
         <v>0</v>
       </c>
       <c r="AL83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>3808.905</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -10593,7 +11097,7 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U84">
         <v>14</v>
@@ -10629,30 +11133,36 @@
         <v>0</v>
       </c>
       <c r="AG84">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH84">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI84">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ84">
         <v>1988</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
         <v>0</v>
       </c>
       <c r="AL84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>27431.635</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10709,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="T85">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U85">
         <v>14</v>
@@ -10745,30 +11255,36 @@
         <v>10602689</v>
       </c>
       <c r="AG85">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH85">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI85">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ85">
         <v>1988</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL85">
         <v>1</v>
       </c>
       <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>9617.51</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10825,7 +11341,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U86">
         <v>14</v>
@@ -10861,30 +11377,36 @@
         <v>0</v>
       </c>
       <c r="AG86">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH86">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI86">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ86">
         <v>1988</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>12409.08</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -10941,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="T87">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U87">
         <v>14</v>
@@ -10977,30 +11499,36 @@
         <v>10535466</v>
       </c>
       <c r="AG87">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH87">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI87">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ87">
         <v>1988</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL87">
         <v>1</v>
       </c>
       <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>337.32</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -11057,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U88">
         <v>14</v>
@@ -11093,30 +11621,36 @@
         <v>0</v>
       </c>
       <c r="AG88">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH88">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI88">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ88">
         <v>1988</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>19105.46</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11173,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="T89">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U89">
         <v>14</v>
@@ -11209,30 +11743,36 @@
         <v>0</v>
       </c>
       <c r="AG89">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH89">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI89">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ89">
         <v>1988</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>2098.87</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -11289,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="T90">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U90">
         <v>14</v>
@@ -11325,30 +11865,36 @@
         <v>6011154</v>
       </c>
       <c r="AG90">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH90">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI90">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ90">
         <v>1988</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL90">
         <v>1</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>1864.52</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -11405,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="T91">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U91">
         <v>14</v>
@@ -11441,30 +11987,36 @@
         <v>7960000</v>
       </c>
       <c r="AG91">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH91">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI91">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ91">
         <v>1988</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>55670.72</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11521,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="T92">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U92">
         <v>14</v>
@@ -11557,30 +12109,36 @@
         <v>0</v>
       </c>
       <c r="AG92">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH92">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI92">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ92">
         <v>1988</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
         <v>0</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>1615.38</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -11637,7 +12195,7 @@
         <v>0</v>
       </c>
       <c r="T93">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U93">
         <v>14</v>
@@ -11673,30 +12231,36 @@
         <v>6909225</v>
       </c>
       <c r="AG93">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH93">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI93">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ93">
         <v>1988</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93">
         <v>1</v>
       </c>
       <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>47249.415</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:41">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -11753,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="T94">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U94">
         <v>14</v>
@@ -11789,30 +12353,36 @@
         <v>5000000</v>
       </c>
       <c r="AG94">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH94">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI94">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ94">
         <v>1988</v>
       </c>
-      <c r="AJ94">
-        <v>0</v>
-      </c>
       <c r="AK94">
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM94">
+        <v>1</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
         <v>339469.665</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:41">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -11869,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="T95">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U95">
         <v>14</v>
@@ -11905,30 +12475,36 @@
         <v>6870483.333333333</v>
       </c>
       <c r="AG95">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH95">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI95">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ95">
         <v>1988</v>
       </c>
-      <c r="AJ95">
-        <v>0</v>
-      </c>
       <c r="AK95">
         <v>0</v>
       </c>
       <c r="AL95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>1</v>
+      </c>
+      <c r="AO95">
         <v>1349.275</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:41">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11985,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="T96">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U96">
         <v>14</v>
@@ -12021,30 +12597,36 @@
         <v>0</v>
       </c>
       <c r="AG96">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH96">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI96">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ96">
         <v>1988</v>
       </c>
-      <c r="AJ96">
-        <v>0</v>
-      </c>
       <c r="AK96">
         <v>0</v>
       </c>
       <c r="AL96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>1</v>
+      </c>
+      <c r="AO96">
         <v>19158.77</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:41">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -12101,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U97">
         <v>14</v>
@@ -12137,30 +12719,36 @@
         <v>8243214</v>
       </c>
       <c r="AG97">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH97">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI97">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ97">
         <v>1988</v>
       </c>
-      <c r="AJ97">
-        <v>0</v>
-      </c>
       <c r="AK97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL97">
         <v>1</v>
       </c>
       <c r="AM97">
+        <v>1</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
         <v>234249.16</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:41">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -12217,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="T98">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U98">
         <v>14</v>
@@ -12253,30 +12841,36 @@
         <v>8167890</v>
       </c>
       <c r="AG98">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH98">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI98">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ98">
         <v>1988</v>
       </c>
-      <c r="AJ98">
-        <v>0</v>
-      </c>
       <c r="AK98">
         <v>0</v>
       </c>
       <c r="AL98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
         <v>89295.78</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:41">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -12333,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="T99">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U99">
         <v>14</v>
@@ -12369,36 +12963,42 @@
         <v>0</v>
       </c>
       <c r="AG99">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH99">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI99">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ99">
         <v>1988</v>
       </c>
-      <c r="AJ99">
-        <v>0</v>
-      </c>
       <c r="AK99">
         <v>0</v>
       </c>
       <c r="AL99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
         <v>2937.035</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:41">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -12449,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="T100">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U100">
         <v>14</v>
@@ -12485,30 +13085,36 @@
         <v>0</v>
       </c>
       <c r="AG100">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH100">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI100">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ100">
         <v>1988</v>
       </c>
-      <c r="AJ100">
-        <v>0</v>
-      </c>
       <c r="AK100">
         <v>0</v>
       </c>
       <c r="AL100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
         <v>7247.105</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -12565,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="T101">
-        <v>1414872.41</v>
+        <v>1423724.65</v>
       </c>
       <c r="U101">
         <v>14</v>
@@ -12601,30 +13207,36 @@
         <v>0</v>
       </c>
       <c r="AG101">
-        <v>5455599.91</v>
+        <v>5464452.15</v>
       </c>
       <c r="AH101">
-        <v>0.2593431397721392</v>
+        <v>0.2605429805072042</v>
       </c>
       <c r="AI101">
+        <v>0.6502024178215193</v>
+      </c>
+      <c r="AJ101">
         <v>1988</v>
       </c>
-      <c r="AJ101">
-        <v>0</v>
-      </c>
       <c r="AK101">
         <v>0</v>
       </c>
       <c r="AL101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
         <v>1992.055</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -12723,24 +13335,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI102">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ102">
         <v>1988</v>
       </c>
-      <c r="AJ102">
-        <v>0</v>
-      </c>
       <c r="AK102">
         <v>0</v>
       </c>
       <c r="AL102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
         <v>3808.905</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -12839,24 +13457,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI103">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ103">
         <v>1988</v>
       </c>
-      <c r="AJ103">
-        <v>0</v>
-      </c>
       <c r="AK103">
         <v>0</v>
       </c>
       <c r="AL103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>1</v>
+      </c>
+      <c r="AO103">
         <v>27431.635</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -12955,24 +13579,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI104">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ104">
         <v>1988</v>
       </c>
-      <c r="AJ104">
-        <v>0</v>
-      </c>
       <c r="AK104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL104">
         <v>1</v>
       </c>
       <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
         <v>9617.51</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -13071,24 +13701,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI105">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ105">
         <v>1988</v>
       </c>
-      <c r="AJ105">
-        <v>0</v>
-      </c>
       <c r="AK105">
         <v>0</v>
       </c>
       <c r="AL105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>12409.08</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -13187,24 +13823,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI106">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ106">
         <v>1988</v>
       </c>
-      <c r="AJ106">
-        <v>0</v>
-      </c>
       <c r="AK106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL106">
         <v>1</v>
       </c>
       <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>1</v>
+      </c>
+      <c r="AO106">
         <v>337.32</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -13303,24 +13945,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI107">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ107">
         <v>1988</v>
       </c>
-      <c r="AJ107">
-        <v>0</v>
-      </c>
       <c r="AK107">
         <v>0</v>
       </c>
       <c r="AL107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
         <v>19105.46</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -13419,24 +14067,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI108">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ108">
         <v>1988</v>
       </c>
-      <c r="AJ108">
-        <v>0</v>
-      </c>
       <c r="AK108">
         <v>0</v>
       </c>
       <c r="AL108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1</v>
+      </c>
+      <c r="AO108">
         <v>2098.87</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -13535,24 +14189,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI109">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ109">
         <v>1988</v>
       </c>
-      <c r="AJ109">
-        <v>0</v>
-      </c>
       <c r="AK109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL109">
         <v>1</v>
       </c>
       <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>1</v>
+      </c>
+      <c r="AO109">
         <v>1864.52</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -13651,24 +14311,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI110">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ110">
         <v>1988</v>
       </c>
-      <c r="AJ110">
-        <v>0</v>
-      </c>
       <c r="AK110">
         <v>0</v>
       </c>
       <c r="AL110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
         <v>55670.72</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -13767,24 +14433,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI111">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ111">
         <v>1988</v>
       </c>
-      <c r="AJ111">
-        <v>0</v>
-      </c>
       <c r="AK111">
         <v>0</v>
       </c>
       <c r="AL111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
         <v>1615.38</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -13883,24 +14555,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI112">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ112">
         <v>1988</v>
       </c>
-      <c r="AJ112">
-        <v>0</v>
-      </c>
       <c r="AK112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL112">
         <v>1</v>
       </c>
       <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
         <v>47249.415</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -13999,24 +14677,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI113">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ113">
         <v>1988</v>
       </c>
-      <c r="AJ113">
-        <v>0</v>
-      </c>
       <c r="AK113">
         <v>0</v>
       </c>
       <c r="AL113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM113">
+        <v>1</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
         <v>339469.665</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -14115,24 +14799,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI114">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ114">
         <v>1988</v>
       </c>
-      <c r="AJ114">
-        <v>0</v>
-      </c>
       <c r="AK114">
         <v>0</v>
       </c>
       <c r="AL114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
         <v>1349.275</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -14231,24 +14921,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI115">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ115">
         <v>1988</v>
       </c>
-      <c r="AJ115">
-        <v>0</v>
-      </c>
       <c r="AK115">
         <v>0</v>
       </c>
       <c r="AL115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1</v>
+      </c>
+      <c r="AO115">
         <v>19158.77</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -14347,24 +15043,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI116">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ116">
         <v>1988</v>
       </c>
-      <c r="AJ116">
-        <v>0</v>
-      </c>
       <c r="AK116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL116">
         <v>1</v>
       </c>
       <c r="AM116">
+        <v>1</v>
+      </c>
+      <c r="AN116">
+        <v>1</v>
+      </c>
+      <c r="AO116">
         <v>234249.16</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -14463,24 +15165,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI117">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ117">
         <v>1988</v>
       </c>
-      <c r="AJ117">
-        <v>0</v>
-      </c>
       <c r="AK117">
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>1</v>
+      </c>
+      <c r="AO117">
         <v>89295.78</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -14579,30 +15287,36 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI118">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ118">
         <v>1988</v>
       </c>
-      <c r="AJ118">
-        <v>0</v>
-      </c>
       <c r="AK118">
         <v>0</v>
       </c>
       <c r="AL118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>1</v>
+      </c>
+      <c r="AO118">
         <v>2937.035</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -14695,24 +15409,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI119">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ119">
         <v>1988</v>
       </c>
-      <c r="AJ119">
-        <v>0</v>
-      </c>
       <c r="AK119">
         <v>0</v>
       </c>
       <c r="AL119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
         <v>7247.105</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -14811,24 +15531,30 @@
         <v>0.6278344985861638</v>
       </c>
       <c r="AI120">
+        <v>0.04450710965905956</v>
+      </c>
+      <c r="AJ120">
         <v>1988</v>
       </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
       <c r="AK120">
         <v>0</v>
       </c>
       <c r="AL120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
         <v>1992.055</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -14927,24 +15653,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI121">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ121">
         <v>1988</v>
       </c>
-      <c r="AJ121">
-        <v>0</v>
-      </c>
       <c r="AK121">
         <v>0</v>
       </c>
       <c r="AL121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>1</v>
+      </c>
+      <c r="AO121">
         <v>1010</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -15043,24 +15775,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI122">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ122">
         <v>1988</v>
       </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
       <c r="AK122">
         <v>0</v>
       </c>
       <c r="AL122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>1</v>
+      </c>
+      <c r="AO122">
         <v>118904</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -15159,24 +15897,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI123">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ123">
         <v>1988</v>
       </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
       <c r="AK123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL123">
         <v>1</v>
       </c>
       <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
         <v>35627</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -15275,24 +16019,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI124">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ124">
         <v>1988</v>
       </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
       <c r="AK124">
         <v>0</v>
       </c>
       <c r="AL124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>1</v>
+      </c>
+      <c r="AO124">
         <v>34632</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -15391,24 +16141,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI125">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ125">
         <v>1988</v>
       </c>
-      <c r="AJ125">
-        <v>0</v>
-      </c>
       <c r="AK125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL125">
         <v>1</v>
       </c>
       <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>1</v>
+      </c>
+      <c r="AO125">
         <v>1104</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -15507,24 +16263,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI126">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ126">
         <v>1988</v>
       </c>
-      <c r="AJ126">
-        <v>0</v>
-      </c>
       <c r="AK126">
         <v>0</v>
       </c>
       <c r="AL126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>1</v>
+      </c>
+      <c r="AO126">
         <v>53121</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -15623,24 +16385,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI127">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ127">
         <v>1988</v>
       </c>
-      <c r="AJ127">
-        <v>0</v>
-      </c>
       <c r="AK127">
         <v>0</v>
       </c>
       <c r="AL127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1</v>
+      </c>
+      <c r="AO127">
         <v>1840</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -15739,24 +16507,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI128">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ128">
         <v>1988</v>
       </c>
-      <c r="AJ128">
-        <v>0</v>
-      </c>
       <c r="AK128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL128">
         <v>1</v>
       </c>
       <c r="AM128">
+        <v>1</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
         <v>28349</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -15855,24 +16629,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI129">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ129">
         <v>1988</v>
       </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
       <c r="AK129">
         <v>0</v>
       </c>
       <c r="AL129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>1</v>
+      </c>
+      <c r="AO129">
         <v>79039</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -15971,24 +16751,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI130">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ130">
         <v>1988</v>
       </c>
-      <c r="AJ130">
-        <v>0</v>
-      </c>
       <c r="AK130">
         <v>0</v>
       </c>
       <c r="AL130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
         <v>7914</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -16087,24 +16873,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI131">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ131">
         <v>1988</v>
       </c>
-      <c r="AJ131">
-        <v>0</v>
-      </c>
       <c r="AK131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL131">
         <v>1</v>
       </c>
       <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>1</v>
+      </c>
+      <c r="AO131">
         <v>15650</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -16203,24 +16995,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI132">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ132">
         <v>1988</v>
       </c>
-      <c r="AJ132">
-        <v>0</v>
-      </c>
       <c r="AK132">
         <v>0</v>
       </c>
       <c r="AL132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM132">
+        <v>1</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
         <v>650816</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -16319,24 +17117,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI133">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ133">
         <v>1988</v>
       </c>
-      <c r="AJ133">
-        <v>0</v>
-      </c>
       <c r="AK133">
         <v>0</v>
       </c>
       <c r="AL133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>1</v>
+      </c>
+      <c r="AO133">
         <v>3576</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -16435,24 +17239,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI134">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ134">
         <v>1988</v>
       </c>
-      <c r="AJ134">
-        <v>0</v>
-      </c>
       <c r="AK134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL134">
         <v>1</v>
       </c>
       <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
         <v>1840</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -16551,24 +17361,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI135">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ135">
         <v>1988</v>
       </c>
-      <c r="AJ135">
-        <v>0</v>
-      </c>
       <c r="AK135">
         <v>0</v>
       </c>
       <c r="AL135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>1</v>
+      </c>
+      <c r="AO135">
         <v>3781</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -16667,24 +17483,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI136">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ136">
         <v>1988</v>
       </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
       <c r="AK136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL136">
         <v>1</v>
       </c>
       <c r="AM136">
+        <v>1</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
         <v>625000</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -16783,24 +17605,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI137">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ137">
         <v>1988</v>
       </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
       <c r="AK137">
         <v>0</v>
       </c>
       <c r="AL137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
         <v>92060</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -16899,24 +17727,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI138">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ138">
         <v>1988</v>
       </c>
-      <c r="AJ138">
-        <v>0</v>
-      </c>
       <c r="AK138">
         <v>0</v>
       </c>
       <c r="AL138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
         <v>220433</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -17015,30 +17849,36 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI139">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ139">
         <v>1988</v>
       </c>
-      <c r="AJ139">
-        <v>0</v>
-      </c>
       <c r="AK139">
         <v>0</v>
       </c>
       <c r="AL139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM139">
+        <v>1</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
         <v>10771</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -17131,24 +17971,30 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI140">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ140">
         <v>1988</v>
       </c>
-      <c r="AJ140">
-        <v>0</v>
-      </c>
       <c r="AK140">
         <v>0</v>
       </c>
       <c r="AL140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>1</v>
+      </c>
+      <c r="AO140">
         <v>71028</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -17247,18 +18093,24 @@
         <v>0.5437561870394093</v>
       </c>
       <c r="AI141">
+        <v>0.3196984224507731</v>
+      </c>
+      <c r="AJ141">
         <v>1988</v>
       </c>
-      <c r="AJ141">
-        <v>0</v>
-      </c>
       <c r="AK141">
         <v>0</v>
       </c>
       <c r="AL141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
         <v>3993</v>
       </c>
     </row>

--- a/output/jovenes y desarrollo.xlsx
+++ b/output/jovenes y desarrollo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
+    <t>Budget_Previous_Year</t>
   </si>
   <si>
-    <t>Vision_ONGD_LatinAmerica</t>
+    <t>LatinAmerica</t>
   </si>
   <si>
-    <t>Vision_ONGD_Africa</t>
+    <t>Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confessional</t>
+    <t>Confessional</t>
   </si>
   <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
+    <t>Donor_Aid_Budget</t>
   </si>
   <si>
-    <t>Total_Fondos</t>
+    <t>Total_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_Privados</t>
+    <t>%_Private_Funds</t>
   </si>
   <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>2014_siria</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2014_togo</t>
@@ -1042,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6490</v>
+        <v>7854.952374701078</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1164,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1286,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1408,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1530,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1652,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4940</v>
+        <v>5191.140356354663</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1754,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -1774,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1896,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2018,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2140,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2262,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2384,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>2550</v>
+        <v>749.9184730334429</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2506,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1010</v>
+        <v>1250.795760575873</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2628,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>3240</v>
+        <v>3587.883798243964</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2750,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2872,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>510</v>
+        <v>488.421401781569</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2994,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>790</v>
+        <v>1036.533951644687</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -3116,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>570</v>
+        <v>647.8358464534491</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3238,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>560</v>
+        <v>534.0443668101981</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3360,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3482,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>1260</v>
+        <v>1401.47747416771</v>
       </c>
       <c r="D22">
         <v>3500000</v>
@@ -3604,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3726,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D24">
         <v>890071</v>
@@ -3828,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM24">
         <v>1</v>
@@ -3848,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D25">
         <v>3300000</v>
@@ -3970,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D26">
         <v>3300000</v>
@@ -4072,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26">
         <v>1</v>
@@ -4092,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4214,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4336,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>2460</v>
+        <v>2217.474008566157</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4458,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1250</v>
+        <v>1317.890706178356</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4580,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>3420</v>
+        <v>3579.960081455846</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4702,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>11530</v>
+        <v>17610.30663334184</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4824,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>530</v>
+        <v>505.2384587280311</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4946,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>800</v>
+        <v>1037.747039954749</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5068,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1120</v>
+        <v>1132.548400540401</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5190,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>650</v>
+        <v>694.6031345426339</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5312,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>730</v>
+        <v>711.1128122770988</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5434,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>610</v>
+        <v>553.2014555484933</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5556,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5678,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1480</v>
+        <v>1591.56825353313</v>
       </c>
       <c r="D40">
         <v>3500000</v>
@@ -5800,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D41">
         <v>346922</v>
@@ -5922,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D42">
         <v>890071</v>
@@ -6024,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -6044,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D43">
         <v>3300000</v>
@@ -6166,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D44">
         <v>3300000</v>
@@ -6268,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -6288,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6410,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6532,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>2610</v>
+        <v>2264.394087033834</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6654,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>3230</v>
+        <v>838.188712186125</v>
       </c>
       <c r="D48">
         <v>356200</v>
@@ -6776,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6898,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -7000,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50">
         <v>1</v>
@@ -7020,7 +7017,7 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>760</v>
+        <v>701.4459636783288</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -7122,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51">
         <v>1</v>
@@ -7142,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7264,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7386,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7508,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>4170</v>
+        <v>3748.449444923865</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7630,7 +7627,7 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D56">
         <v>300000</v>
@@ -7752,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2390</v>
+        <v>2860.874335573629</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7874,7 +7871,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>820</v>
+        <v>1057.667740311969</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7996,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>670</v>
+        <v>719.6981727039259</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -8118,7 +8115,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>730</v>
+        <v>684.6474015015979</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -8240,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1230</v>
+        <v>1223.631935023299</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8362,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>590</v>
+        <v>573.9239887389259</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8484,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8606,7 +8603,7 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>1710</v>
+        <v>1745.10167474004</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8728,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8850,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8972,7 +8969,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -9074,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67">
         <v>1</v>
@@ -9094,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>800</v>
+        <v>720.7128711178943</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9196,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68">
         <v>1</v>
@@ -9216,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9338,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9460,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9582,7 +9579,7 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>4780</v>
+        <v>3796.882621798447</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9704,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9826,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>2490</v>
+        <v>2887.250212489506</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9948,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>890</v>
+        <v>1102.527430026863</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -10070,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>700</v>
+        <v>731.5588677998553</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10192,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>780</v>
+        <v>680.3923729568069</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10314,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>1320</v>
+        <v>1299.811672673934</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10436,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>620</v>
+        <v>593.1620921048029</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10558,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10680,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>1210</v>
+        <v>1778.60982580794</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10802,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10924,7 +10921,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>5010</v>
+        <v>3843.198240901342</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -11046,7 +11043,7 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>930</v>
+        <v>1140.447753778042</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11168,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11290,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>12100</v>
+        <v>11951.20944634967</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -11412,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11534,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11656,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1450</v>
+        <v>1379.14068216006</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11778,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11900,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -12022,7 +12019,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1920</v>
+        <v>1627.760281433693</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -12144,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -12266,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -12368,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="AL94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM94">
         <v>1</v>
@@ -12388,7 +12385,7 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>810</v>
+        <v>707.8672001573369</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -12510,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -12632,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D97">
         <v>2500000</v>
@@ -12754,7 +12751,7 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>6310</v>
+        <v>6301.696269820412</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -12856,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="AL98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM98">
         <v>0</v>
@@ -12876,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>700</v>
+        <v>567.8342670439314</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -12997,8 +12994,8 @@
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100" t="s">
-        <v>140</v>
+      <c r="C100">
+        <v>0</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13114,13 +13111,13 @@
     </row>
     <row r="101" spans="1:41">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101">
-        <v>640</v>
+        <v>612.1489724037899</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -13236,13 +13233,13 @@
     </row>
     <row r="102" spans="1:41">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>4520</v>
+        <v>3748.320622951519</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -13358,13 +13355,13 @@
     </row>
     <row r="103" spans="1:41">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>860</v>
+        <v>1128.996380299766</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -13480,13 +13477,13 @@
     </row>
     <row r="104" spans="1:41">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -13602,13 +13599,13 @@
     </row>
     <row r="105" spans="1:41">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>10160</v>
+        <v>11431.15448084494</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -13724,13 +13721,13 @@
     </row>
     <row r="106" spans="1:41">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -13846,13 +13843,13 @@
     </row>
     <row r="107" spans="1:41">
       <c r="A107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
       <c r="C107">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -13968,13 +13965,13 @@
     </row>
     <row r="108" spans="1:41">
       <c r="A108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <v>1480</v>
+        <v>1463.71052702022</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14090,13 +14087,13 @@
     </row>
     <row r="109" spans="1:41">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
       <c r="C109">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14212,13 +14209,13 @@
     </row>
     <row r="110" spans="1:41">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14334,13 +14331,13 @@
     </row>
     <row r="111" spans="1:41">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>1960</v>
+        <v>1625.905825842452</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -14456,13 +14453,13 @@
     </row>
     <row r="112" spans="1:41">
       <c r="A112" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
       <c r="C112">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -14578,13 +14575,13 @@
     </row>
     <row r="113" spans="1:41">
       <c r="A113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
       <c r="C113">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -14686,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="AL113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM113">
         <v>1</v>
@@ -14700,13 +14697,13 @@
     </row>
     <row r="114" spans="1:41">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
       <c r="C114">
-        <v>790</v>
+        <v>729.7808175407341</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -14822,13 +14819,13 @@
     </row>
     <row r="115" spans="1:41">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -14944,13 +14941,13 @@
     </row>
     <row r="116" spans="1:41">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -15066,13 +15063,13 @@
     </row>
     <row r="117" spans="1:41">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>6480</v>
+        <v>6661.86504232374</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -15174,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="AL117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM117">
         <v>0</v>
@@ -15188,13 +15185,13 @@
     </row>
     <row r="118" spans="1:41">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
       <c r="C118">
-        <v>550</v>
+        <v>441.1376640642927</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -15310,13 +15307,13 @@
     </row>
     <row r="119" spans="1:41">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-      <c r="C119" t="s">
-        <v>140</v>
+      <c r="C119">
+        <v>0</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -15432,13 +15429,13 @@
     </row>
     <row r="120" spans="1:41">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <v>640</v>
+        <v>630.9372503341563</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -15554,13 +15551,13 @@
     </row>
     <row r="121" spans="1:41">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121">
-        <v>3770</v>
+        <v>3530.309422482455</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -15676,13 +15673,13 @@
     </row>
     <row r="122" spans="1:41">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
       <c r="C122">
-        <v>820</v>
+        <v>1134.924536209078</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -15798,13 +15795,13 @@
     </row>
     <row r="123" spans="1:41">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
       <c r="C123">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -15920,13 +15917,13 @@
     </row>
     <row r="124" spans="1:41">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <v>8930</v>
+        <v>10965.97426143915</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -16042,13 +16039,13 @@
     </row>
     <row r="125" spans="1:41">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
       <c r="C125">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -16164,13 +16161,13 @@
     </row>
     <row r="126" spans="1:41">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>1820</v>
+        <v>2854.757682901436</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -16286,13 +16283,13 @@
     </row>
     <row r="127" spans="1:41">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>1530</v>
+        <v>1529.507453727912</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -16408,13 +16405,13 @@
     </row>
     <row r="128" spans="1:41">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
       <c r="C128">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -16530,13 +16527,13 @@
     </row>
     <row r="129" spans="1:41">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
       <c r="C129">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -16652,13 +16649,13 @@
     </row>
     <row r="130" spans="1:41">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>1830</v>
+        <v>1644.598009122967</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -16774,13 +16771,13 @@
     </row>
     <row r="131" spans="1:41">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -16896,13 +16893,13 @@
     </row>
     <row r="132" spans="1:41">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
       <c r="C132">
-        <v>780</v>
+        <v>729.8559996981501</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -17004,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="AL132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM132">
         <v>1</v>
@@ -17018,13 +17015,13 @@
     </row>
     <row r="133" spans="1:41">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
       <c r="C133">
-        <v>780</v>
+        <v>749.2194349876407</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -17140,13 +17137,13 @@
     </row>
     <row r="134" spans="1:41">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
       <c r="C134">
-        <v>9410</v>
+        <v>10205.79575322194</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -17262,13 +17259,13 @@
     </row>
     <row r="135" spans="1:41">
       <c r="A135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
       <c r="C135">
-        <v>770</v>
+        <v>729.6614300490079</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -17384,13 +17381,13 @@
     </row>
     <row r="136" spans="1:41">
       <c r="A136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -17506,13 +17503,13 @@
     </row>
     <row r="137" spans="1:41">
       <c r="A137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
       <c r="C137">
-        <v>410</v>
+        <v>359.6000402964525</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -17628,13 +17625,13 @@
     </row>
     <row r="138" spans="1:41">
       <c r="A138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -17736,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="AL138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM138">
         <v>0</v>
@@ -17750,13 +17747,13 @@
     </row>
     <row r="139" spans="1:41">
       <c r="A139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
       <c r="C139">
-        <v>490</v>
+        <v>457.8330917196623</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -17872,13 +17869,13 @@
     </row>
     <row r="140" spans="1:41">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
-      <c r="C140" t="s">
-        <v>140</v>
+      <c r="C140">
+        <v>0</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -17994,13 +17991,13 @@
     </row>
     <row r="141" spans="1:41">
       <c r="A141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
       <c r="C141">
-        <v>610</v>
+        <v>649.4459389945755</v>
       </c>
       <c r="D141">
         <v>0</v>

--- a/output/jovenes y desarrollo.xlsx
+++ b/output/jovenes y desarrollo.xlsx
@@ -5678,7 +5678,7 @@
         <v>1591.56825353313</v>
       </c>
       <c r="D40">
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>818640</v>
@@ -5922,7 +5922,7 @@
         <v>691.8942672110555</v>
       </c>
       <c r="D42">
-        <v>890071</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>1763837</v>
@@ -6044,7 +6044,7 @@
         <v>1577.487171555845</v>
       </c>
       <c r="D43">
-        <v>3300000</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>832250</v>
@@ -6166,7 +6166,7 @@
         <v>5660.517066940175</v>
       </c>
       <c r="D44">
-        <v>3300000</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>832250</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>379125</v>
+        <v>975250</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>376125</v>
+        <v>964700</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>30642.68</v>
+        <v>271962</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>26171.73</v>
+        <v>109197</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>12964.32</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>3000</v>
+        <v>224906</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9707,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>60316.73</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>54131.47</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>56049.025</v>
+        <v>144622</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -10073,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10195,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>3150</v>
+        <v>5230</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>34614.045</v>
+        <v>342962</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -10561,7 +10561,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>66252.3</v>
+        <v>18000</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>375600</v>
+        <v>1100000</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10805,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>61204.925</v>
+        <v>50000</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -12995,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1366.25</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -13236,7 +13236,7 @@
         <v>141</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>3748.320622951519</v>
@@ -13245,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>3808.905</v>
+        <v>3000</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -13358,7 +13358,7 @@
         <v>142</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>1128.996380299766</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>27431.635</v>
+        <v>56049.025</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>9617.51</v>
+        <v>26171.73</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>12409.08</v>
+        <v>0</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>337.32</v>
+        <v>900</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -13855,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>19105.46</v>
+        <v>54131.47</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -13977,7 +13977,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>2098.87</v>
+        <v>3150</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -14099,7 +14099,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>1864.52</v>
+        <v>0</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -14212,7 +14212,7 @@
         <v>149</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>482.6390663355013</v>
@@ -14221,7 +14221,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>55670.72</v>
+        <v>66252.3</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -14343,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>1615.38</v>
+        <v>0</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>47249.415</v>
+        <v>12964.32</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -14578,7 +14578,7 @@
         <v>152</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113">
         <v>729.1196658666737</v>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>339469.665</v>
+        <v>30642.68</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -14700,7 +14700,7 @@
         <v>153</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114">
         <v>729.7808175407341</v>
@@ -14709,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>1349.275</v>
+        <v>600</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -14822,7 +14822,7 @@
         <v>154</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115">
         <v>731.9993357350996</v>
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>19158.77</v>
+        <v>0</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>234249.16</v>
+        <v>379125</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -15075,7 +15075,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>89295.78</v>
+        <v>376125</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -15188,7 +15188,7 @@
         <v>157</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <v>441.1376640642927</v>
@@ -15197,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>2937.035</v>
+        <v>0</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -15313,13 +15313,13 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1404.51</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>7247.105</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -15432,7 +15432,7 @@
         <v>159</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>630.9372503341563</v>
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>1992.055</v>
+        <v>34614.045</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -17875,7 +17875,7 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>941.02</v>
       </c>
       <c r="D140">
         <v>0</v>
